--- a/assets/resources/datatables/Currency.xlsx
+++ b/assets/resources/datatables/Currency.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WheelChairMan\assets\resources\datatables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14FF431C-8167-4291-844E-01E76D9BCD55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9353D7-138C-449A-8DDB-C42FC3B46173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6330" yWindow="3510" windowWidth="28110" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6930" yWindow="3900" windowWidth="28110" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,6 +132,46 @@
   </si>
   <si>
     <t>SOULGEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dollar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钞票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOLLAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FFD800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4288D7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7C231C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FF0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00AD5F</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -457,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="A1:G8"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -470,7 +510,7 @@
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -478,7 +518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -500,8 +540,11 @@
       <c r="G2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -523,8 +566,11 @@
       <c r="G3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -546,8 +592,11 @@
       <c r="G4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>1001</v>
       </c>
@@ -566,8 +615,11 @@
       <c r="G5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>1002</v>
       </c>
@@ -586,8 +638,11 @@
       <c r="G6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>1003</v>
       </c>
@@ -606,8 +661,11 @@
       <c r="G7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>1004</v>
       </c>
@@ -618,13 +676,39 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>-1</v>
+        <v>50000</v>
       </c>
       <c r="F8">
         <v>2015</v>
       </c>
       <c r="G8" t="s">
         <v>26</v>
+      </c>
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>1005</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9">
+        <v>90000</v>
+      </c>
+      <c r="F9">
+        <v>2016</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
